--- a/installationfiles/question_database.xlsx
+++ b/installationfiles/question_database.xlsx
@@ -10597,9 +10597,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D519D73AA388448BBA85CE1747F1769" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f6d22884b28ca266cc8adadd17a49fef">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e242fc0-d435-44b8-b50b-7043f4425f4e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b1388d6bcee585058362c30f44f06390" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D519D73AA388448BBA85CE1747F1769" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eb237645a81e204773fc35fe32a02bca">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e242fc0-d435-44b8-b50b-7043f4425f4e" xmlns:ns3="3b5ca8b6-f98e-4bc0-973d-39319eec91f3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ab12ec96cdcfc1e2dbebef0d5fdeb145" ns2:_="" ns3:_="">
     <xsd:import namespace="0e242fc0-d435-44b8-b50b-7043f4425f4e"/>
+    <xsd:import namespace="3b5ca8b6-f98e-4bc0-973d-39319eec91f3"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -10610,6 +10611,9 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -10636,6 +10640,41 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3b5ca8b6-f98e-4bc0-973d-39319eec91f3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="13" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="14" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -10758,7 +10797,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17429529-7DC6-4AE0-B2FD-6FA02D17D2A2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF587A0A-2054-43DF-956D-EE7328B39479}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/installationfiles/question_database.xlsx
+++ b/installationfiles/question_database.xlsx
@@ -8726,8 +8726,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D519D73AA388448BBA85CE1747F1769" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eb237645a81e204773fc35fe32a02bca">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e242fc0-d435-44b8-b50b-7043f4425f4e" xmlns:ns3="3b5ca8b6-f98e-4bc0-973d-39319eec91f3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ab12ec96cdcfc1e2dbebef0d5fdeb145" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D519D73AA388448BBA85CE1747F1769" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2428781ef8c3579d683c0a79b1fb1655">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e242fc0-d435-44b8-b50b-7043f4425f4e" xmlns:ns3="3b5ca8b6-f98e-4bc0-973d-39319eec91f3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0de64ab122689c3d174a725182b5a751" ns2:_="" ns3:_="">
     <xsd:import namespace="0e242fc0-d435-44b8-b50b-7043f4425f4e"/>
     <xsd:import namespace="3b5ca8b6-f98e-4bc0-973d-39319eec91f3"/>
     <xsd:element name="properties">
@@ -8743,6 +8743,8 @@
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -8776,6 +8778,16 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -8926,7 +8938,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6BCC7B2-6838-4D97-808C-EC7EDFC509EB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2777E49-ADEC-4AC2-891B-57078814C07C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
